--- a/Projects 2-5-2014.xlsx
+++ b/Projects 2-5-2014.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
   <si>
     <t>Project Name</t>
   </si>
@@ -582,6 +582,30 @@
   </si>
   <si>
     <t>low</t>
+  </si>
+  <si>
+    <t>DC/AC inverter</t>
+  </si>
+  <si>
+    <t>Battery Charger</t>
+  </si>
+  <si>
+    <t>Solar Charger</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Automated LED controller</t>
+  </si>
+  <si>
+    <t>LED controller with Micro</t>
+  </si>
+  <si>
+    <t>Headstone</t>
+  </si>
+  <si>
+    <t>Dog Vacationer</t>
   </si>
 </sst>
 </file>
@@ -686,7 +710,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -733,6 +757,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
@@ -741,7 +777,174 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="60">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -915,54 +1118,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:AC75" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A3:AC75"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:AC81" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A3:AC80"/>
+  <sortState ref="A4:AC80">
+    <sortCondition descending="1" ref="Q3:Q80"/>
+  </sortState>
   <tableColumns count="29">
-    <tableColumn id="1" name="Project Name" dataDxfId="28"/>
-    <tableColumn id="2" name="Simple Description" dataDxfId="27"/>
-    <tableColumn id="16" name="Features" dataDxfId="26"/>
-    <tableColumn id="3" name="Technology" dataDxfId="25"/>
-    <tableColumn id="14" name="Notes/Status" dataDxfId="24"/>
-    <tableColumn id="4" name="Concept" dataDxfId="23" dataCellStyle="Percent"/>
-    <tableColumn id="6" name="Feasibility" dataDxfId="22" dataCellStyle="Percent"/>
-    <tableColumn id="7" name="Design" dataDxfId="21" dataCellStyle="Percent"/>
-    <tableColumn id="8" name="BOM" dataDxfId="20" dataCellStyle="Percent"/>
-    <tableColumn id="9" name="Prototype" dataDxfId="19" dataCellStyle="Percent"/>
-    <tableColumn id="10" name="Software" dataDxfId="18" dataCellStyle="Percent"/>
-    <tableColumn id="11" name="Optimization" dataDxfId="17" dataCellStyle="Percent"/>
-    <tableColumn id="12" name="Production ready" dataDxfId="16" dataCellStyle="Percent"/>
-    <tableColumn id="13" name="Complete?" dataDxfId="15" dataCellStyle="Percent">
+    <tableColumn id="1" name="Project Name" totalsRowLabel="Total" dataDxfId="57" totalsRowDxfId="28"/>
+    <tableColumn id="2" name="Simple Description" dataDxfId="56" totalsRowDxfId="27"/>
+    <tableColumn id="16" name="Features" dataDxfId="55" totalsRowDxfId="26"/>
+    <tableColumn id="3" name="Technology" dataDxfId="54" totalsRowDxfId="25"/>
+    <tableColumn id="14" name="Notes/Status" dataDxfId="53" totalsRowDxfId="24"/>
+    <tableColumn id="4" name="Concept" dataDxfId="52" totalsRowDxfId="23" dataCellStyle="Percent"/>
+    <tableColumn id="6" name="Feasibility" dataDxfId="51" totalsRowDxfId="22" dataCellStyle="Percent"/>
+    <tableColumn id="7" name="Design" dataDxfId="50" totalsRowDxfId="21" dataCellStyle="Percent"/>
+    <tableColumn id="8" name="BOM" dataDxfId="49" totalsRowDxfId="20" dataCellStyle="Percent"/>
+    <tableColumn id="9" name="Prototype" dataDxfId="48" totalsRowDxfId="19" dataCellStyle="Percent"/>
+    <tableColumn id="10" name="Software" dataDxfId="47" totalsRowDxfId="18" dataCellStyle="Percent"/>
+    <tableColumn id="11" name="Optimization" dataDxfId="46" totalsRowDxfId="17" dataCellStyle="Percent"/>
+    <tableColumn id="12" name="Production ready" dataDxfId="45" totalsRowDxfId="16" dataCellStyle="Percent"/>
+    <tableColumn id="13" name="Complete?" dataDxfId="44" totalsRowDxfId="15" dataCellStyle="Percent">
       <calculatedColumnFormula>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" name="Market/Interest" dataDxfId="14"/>
-    <tableColumn id="25" name="Competition" dataDxfId="13"/>
-    <tableColumn id="15" name="Annual Prediction" dataDxfId="12"/>
-    <tableColumn id="20" name="Development Time" dataDxfId="11"/>
-    <tableColumn id="23" name="Per Part Cost" dataDxfId="10" dataCellStyle="Currency"/>
-    <tableColumn id="27" name="Annual Cost" dataDxfId="9" dataCellStyle="Currency">
+    <tableColumn id="5" name="Market/Interest" dataDxfId="43" totalsRowDxfId="14"/>
+    <tableColumn id="25" name="Competition" dataDxfId="42" totalsRowDxfId="13"/>
+    <tableColumn id="15" name="Annual Prediction" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="12"/>
+    <tableColumn id="20" name="Development Time" totalsRowFunction="sum" dataDxfId="40" totalsRowDxfId="11"/>
+    <tableColumn id="23" name="Per Part Cost" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="27" name="Annual Cost" totalsRowFunction="sum" dataDxfId="38" totalsRowDxfId="9" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" name="Development Cost" dataDxfId="8" dataCellStyle="Currency">
+    <tableColumn id="17" name="Development Cost" totalsRowFunction="sum" dataDxfId="37" totalsRowDxfId="8" dataCellStyle="Currency">
       <calculatedColumnFormula>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="Assembly Time" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="30" name="Assembly Cost" dataDxfId="6" dataCellStyle="Currency">
+    <tableColumn id="29" name="Assembly Time" totalsRowFunction="sum" dataDxfId="36" totalsRowDxfId="7" dataCellStyle="Currency"/>
+    <tableColumn id="30" name="Assembly Cost" totalsRowFunction="sum" dataDxfId="35" totalsRowDxfId="6" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" name="Annual Assembly Cost" dataDxfId="5" dataCellStyle="Currency">
+    <tableColumn id="32" name="Annual Assembly Cost" totalsRowFunction="sum" dataDxfId="34" totalsRowDxfId="5" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" name="Revenue markup" dataDxfId="4" dataCellStyle="Percent"/>
-    <tableColumn id="19" name="Sell Price" dataDxfId="3" dataCellStyle="Currency">
+    <tableColumn id="18" name="Revenue markup" dataDxfId="33" totalsRowDxfId="4" dataCellStyle="Percent"/>
+    <tableColumn id="19" name="Sell Price" totalsRowFunction="sum" dataDxfId="32" totalsRowDxfId="3" dataCellStyle="Currency">
       <calculatedColumnFormula>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" name="Annual Income" dataDxfId="2" dataCellStyle="Currency">
+    <tableColumn id="21" name="Annual Income" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="2" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" name="Year 1 Revenue" dataDxfId="1" dataCellStyle="Currency">
+    <tableColumn id="22" name="Year 1 Revenue" totalsRowFunction="sum" dataDxfId="30" totalsRowDxfId="1" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="Year 2 Revenue" dataDxfId="0" dataCellStyle="Currency">
+    <tableColumn id="28" name="Year 2 Revenue" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="0" dataCellStyle="Currency">
       <calculatedColumnFormula>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1257,11 +1463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF75"/>
+  <dimension ref="A1:AF81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1513,22 +1719,16 @@
     </row>
     <row r="4" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G4" s="3">
         <v>0</v>
@@ -1551,62 +1751,62 @@
       <c r="M4" s="3">
         <v>0</v>
       </c>
-      <c r="N4" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>3.7499999999999999E-2</v>
+      <c r="N4" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q4" s="1">
-        <v>20</v>
+        <v>10000</v>
       </c>
       <c r="R4" s="1">
-        <v>200</v>
+        <v>10</v>
       </c>
       <c r="S4" s="6">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="T4" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>10000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>100000</v>
       </c>
       <c r="U4" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>8000</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V4" s="8">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="W4" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>160</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
       </c>
       <c r="X4" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3200</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>160000</v>
       </c>
       <c r="Y4" s="3">
-        <v>0.5</v>
+        <v>0.93</v>
       </c>
       <c r="Z4" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>990</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>50.180000000000007</v>
       </c>
       <c r="AA4" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>19800</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>501800.00000000006</v>
       </c>
       <c r="AB4" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-1400</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>241400.00000000006</v>
       </c>
       <c r="AC4" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>9640</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>401784.00000000006</v>
       </c>
       <c r="AE4" s="15">
         <v>40</v>
@@ -1617,19 +1817,13 @@
     </row>
     <row r="5" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>147</v>
       </c>
       <c r="F5" s="3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="3">
         <v>0</v>
@@ -1652,18 +1846,18 @@
       <c r="M5" s="3">
         <v>0</v>
       </c>
-      <c r="N5" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>6.25E-2</v>
+      <c r="N5" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q5" s="1">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="R5" s="1">
         <v>20</v>
@@ -1672,42 +1866,42 @@
         <v>100</v>
       </c>
       <c r="T5" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>100000</v>
       </c>
       <c r="U5" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>800</v>
       </c>
       <c r="V5" s="8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="W5" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>64</v>
       </c>
       <c r="X5" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>64000</v>
       </c>
       <c r="Y5" s="3">
         <v>0.5</v>
       </c>
       <c r="Z5" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>246</v>
       </c>
       <c r="AA5" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2700</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>246000</v>
       </c>
       <c r="AB5" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>100</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>81200</v>
       </c>
       <c r="AC5" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1620</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>145936</v>
       </c>
       <c r="AE5" s="15">
         <v>8</v>
@@ -1718,209 +1912,104 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>3.125E-2</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>160</v>
+        <v>192</v>
+      </c>
+      <c r="N6" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q6" s="1">
-        <v>50</v>
-      </c>
-      <c r="R6" s="1">
-        <v>30</v>
-      </c>
-      <c r="S6" s="6">
-        <v>150</v>
-      </c>
-      <c r="T6" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>7500</v>
+        <v>1000</v>
+      </c>
+      <c r="T6" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U6" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V6" s="8">
-        <v>20</v>
-      </c>
-      <c r="W6" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>160</v>
-      </c>
-      <c r="X6" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z6" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>465</v>
-      </c>
-      <c r="AA6" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>23250</v>
-      </c>
-      <c r="AB6" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>6550</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC6" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>15590</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="O7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>35</v>
+        <v>193</v>
+      </c>
+      <c r="N7" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q7" s="1">
-        <v>300</v>
-      </c>
-      <c r="R7" s="1">
-        <v>40</v>
-      </c>
-      <c r="S7" s="6">
-        <v>100</v>
-      </c>
-      <c r="T7" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>30000</v>
+        <v>1000</v>
+      </c>
+      <c r="T7" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U7" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1600</v>
-      </c>
-      <c r="V7" s="8">
-        <v>10</v>
-      </c>
-      <c r="W7" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
-      </c>
-      <c r="X7" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>24000</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z7" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
-      </c>
-      <c r="AA7" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>81000</v>
-      </c>
-      <c r="AB7" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>25400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W7" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X7" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC7" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>50920</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>180</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
@@ -1943,76 +2032,73 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-      <c r="N8" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>1.2500000000000001E-2</v>
+      <c r="N8" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R8" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S8" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T8" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>15000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>50000</v>
       </c>
       <c r="U8" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V8" s="8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="W8" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
       </c>
       <c r="X8" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>12000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="Y8" s="3">
         <v>0.5</v>
       </c>
       <c r="Z8" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>135</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>174</v>
       </c>
       <c r="AA8" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>40500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>87000</v>
       </c>
       <c r="AB8" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>12700</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>27800</v>
       </c>
       <c r="AC8" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>25460</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>36984</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -2038,76 +2124,70 @@
       <c r="M9" s="3">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+      <c r="N9" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="Q9" s="1">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R9" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S9" s="6">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="T9" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>15000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>30000</v>
       </c>
       <c r="U9" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V9" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W9" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>32</v>
       </c>
       <c r="X9" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>12000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>16000</v>
       </c>
       <c r="Y9" s="3">
         <v>0.5</v>
       </c>
       <c r="Z9" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>135</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>138</v>
       </c>
       <c r="AA9" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>40500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>69000</v>
       </c>
       <c r="AB9" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>12700</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>22600</v>
       </c>
       <c r="AC9" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>25460</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>38968</v>
       </c>
     </row>
     <row r="10" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -2133,97 +2213,91 @@
       <c r="M10" s="3">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+      <c r="N10" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q10" s="1">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="R10" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S10" s="6">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="T10" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>12500</v>
       </c>
       <c r="U10" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V10" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W10" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>8</v>
       </c>
       <c r="X10" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="Y10" s="3">
         <v>0.5</v>
       </c>
       <c r="Z10" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>120</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>49.5</v>
       </c>
       <c r="AA10" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>24000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>24750</v>
       </c>
       <c r="AB10" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>6800</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>7850</v>
       </c>
       <c r="AC10" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>15960</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>12242</v>
       </c>
     </row>
     <row r="11" spans="1:32" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F11" s="3">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" s="3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I11" s="3">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="3">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="L11" s="3">
         <v>0</v>
@@ -2231,101 +2305,71 @@
       <c r="M11" s="3">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0.58750000000000002</v>
+      <c r="N11" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="R11" s="1">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="S11" s="6">
+        <v>60</v>
+      </c>
+      <c r="T11" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>30000</v>
+      </c>
+      <c r="U11" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>400</v>
       </c>
-      <c r="T11" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>20000</v>
-      </c>
-      <c r="U11" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>4000</v>
-      </c>
       <c r="V11" s="8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="W11" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>160</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>32</v>
       </c>
       <c r="X11" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>16000</v>
       </c>
       <c r="Y11" s="3">
         <v>0.5</v>
       </c>
       <c r="Z11" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>840</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>138</v>
       </c>
       <c r="AA11" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>42000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>69000</v>
       </c>
       <c r="AB11" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>10000</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>22600</v>
       </c>
       <c r="AC11" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>21840</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>38968</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0.74375000000000002</v>
+        <v>81</v>
+      </c>
+      <c r="N12" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>35</v>
@@ -2340,65 +2384,65 @@
         <v>20</v>
       </c>
       <c r="S12" s="6">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="T12" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>12500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>50000</v>
       </c>
       <c r="U12" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>800</v>
       </c>
       <c r="V12" s="8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="W12" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>16</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>64</v>
       </c>
       <c r="X12" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>32000</v>
       </c>
       <c r="Y12" s="3">
         <v>0.5</v>
       </c>
       <c r="Z12" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>61.5</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>246</v>
       </c>
       <c r="AA12" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>30750</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>123000</v>
       </c>
       <c r="AB12" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>9450</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>40200</v>
       </c>
       <c r="AC12" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>18234</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>72936</v>
       </c>
     </row>
     <row r="13" spans="1:32" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" s="3">
         <v>0</v>
@@ -2418,9 +2462,9 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0.125</v>
+      <c r="N13" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>35</v>
@@ -2429,65 +2473,68 @@
         <v>35</v>
       </c>
       <c r="Q13" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="R13" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S13" s="6">
+        <v>100</v>
+      </c>
+      <c r="T13" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>30000</v>
+      </c>
+      <c r="U13" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1600</v>
+      </c>
+      <c r="V13" s="8">
+        <v>10</v>
+      </c>
+      <c r="W13" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>80</v>
       </c>
-      <c r="T13" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>40000</v>
-      </c>
-      <c r="U13" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V13" s="8">
-        <v>5</v>
-      </c>
-      <c r="W13" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
-      </c>
       <c r="X13" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>20000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>24000</v>
       </c>
       <c r="Y13" s="3">
         <v>0.5</v>
       </c>
       <c r="Z13" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>180</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>270</v>
       </c>
       <c r="AA13" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>90000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>81000</v>
       </c>
       <c r="AB13" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>28800</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>25400</v>
       </c>
       <c r="AC13" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>49960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>50920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>116</v>
+        <v>39</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
@@ -2510,70 +2557,76 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+      <c r="N14" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="Q14" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R14" s="1">
         <v>20</v>
       </c>
       <c r="S14" s="6">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="T14" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>9000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>15000</v>
       </c>
       <c r="U14" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>800</v>
       </c>
       <c r="V14" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W14" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X14" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>12000</v>
       </c>
       <c r="Y14" s="3">
         <v>0.5</v>
       </c>
       <c r="Z14" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>255</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>135</v>
       </c>
       <c r="AA14" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>25500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>40500</v>
       </c>
       <c r="AB14" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>7700</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>12700</v>
       </c>
       <c r="AC14" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>16420</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>25460</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>117</v>
+        <v>40</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -2599,165 +2652,138 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+      <c r="N15" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>122</v>
       </c>
       <c r="Q15" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R15" s="1">
         <v>20</v>
       </c>
       <c r="S15" s="6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="T15" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>10000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>15000</v>
       </c>
       <c r="U15" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>800</v>
       </c>
       <c r="V15" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W15" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X15" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>12000</v>
       </c>
       <c r="Y15" s="3">
         <v>0.5</v>
       </c>
       <c r="Z15" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>135</v>
       </c>
       <c r="AA15" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>27000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>40500</v>
       </c>
       <c r="AB15" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>8200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>12700</v>
       </c>
       <c r="AC15" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>16920</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>25460</v>
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="N16" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="1">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R16" s="1">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="S16" s="6">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="T16" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>6000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>15000</v>
       </c>
       <c r="U16" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1600</v>
       </c>
       <c r="V16" s="8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="W16" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>24</v>
       </c>
       <c r="X16" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>7200</v>
       </c>
       <c r="Y16" s="3">
         <v>0.5</v>
       </c>
       <c r="Z16" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>150</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>111</v>
       </c>
       <c r="AA16" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>15000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>33300</v>
       </c>
       <c r="AB16" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>4200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>9500</v>
       </c>
       <c r="AC16" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>8960</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>18276</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>43</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>121</v>
+        <v>45</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -2783,91 +2809,91 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-      <c r="N17" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+      <c r="N17" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>122</v>
+        <v>16</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="Q17" s="1">
-        <v>10000</v>
+        <v>200</v>
       </c>
       <c r="R17" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S17" s="6">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="T17" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>100000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="U17" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V17" s="8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W17" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>16</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X17" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>160000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="Y17" s="3">
         <v>0.5</v>
       </c>
       <c r="Z17" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>39</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>120</v>
       </c>
       <c r="AA17" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>390000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>24000</v>
       </c>
       <c r="AB17" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>129600</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>6800</v>
       </c>
       <c r="AC17" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>289984</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>15960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="F18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -2876,8 +2902,8 @@
         <v>0</v>
       </c>
       <c r="N18" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0.74375000000000002</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>35</v>
@@ -2886,56 +2912,71 @@
         <v>35</v>
       </c>
       <c r="Q18" s="1">
-        <v>500</v>
+        <v>200</v>
+      </c>
+      <c r="R18" s="1">
+        <v>20</v>
+      </c>
+      <c r="S18" s="6">
+        <v>25</v>
       </c>
       <c r="T18" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>12500</v>
       </c>
       <c r="U18" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
+      </c>
+      <c r="V18" s="8">
+        <v>2</v>
       </c>
       <c r="W18" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
       </c>
       <c r="X18" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z18" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>61.5</v>
       </c>
       <c r="AA18" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>30750</v>
       </c>
       <c r="AB18" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>9450</v>
       </c>
       <c r="AC18" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>18234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>125</v>
+        <v>56</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="3">
         <v>0</v>
@@ -2956,69 +2997,69 @@
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0.125</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R19" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" s="6">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="T19" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>30000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>40000</v>
       </c>
       <c r="U19" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V19" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W19" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>32</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X19" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>16000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>20000</v>
       </c>
       <c r="Y19" s="3">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="Z19" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>101.2</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>180</v>
       </c>
       <c r="AA19" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>50600</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>90000</v>
       </c>
       <c r="AB19" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>4200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>28800</v>
       </c>
       <c r="AC19" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>20568</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>49960</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -3045,72 +3086,72 @@
         <v>0</v>
       </c>
       <c r="N20" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R20" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S20" s="6">
-        <v>25</v>
-      </c>
-      <c r="T20" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>12500</v>
+        <v>75</v>
+      </c>
+      <c r="T20" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>37500</v>
       </c>
       <c r="U20" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V20" s="8">
-        <v>1</v>
-      </c>
-      <c r="W20" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>8</v>
-      </c>
-      <c r="X20" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
+        <v>2</v>
+      </c>
+      <c r="W20" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
+      </c>
+      <c r="X20" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="Y20" s="3">
         <v>0.5</v>
       </c>
-      <c r="Z20" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>49.5</v>
-      </c>
-      <c r="AA20" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>24750</v>
-      </c>
-      <c r="AB20" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>7850</v>
+      <c r="Z20" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>136.5</v>
+      </c>
+      <c r="AA20" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>68250</v>
+      </c>
+      <c r="AB20" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>21550</v>
       </c>
       <c r="AC20" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>12242</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>30734</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -3137,72 +3178,72 @@
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="Q21" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="R21" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S21" s="6">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="T21" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>37500</v>
       </c>
       <c r="U21" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V21" s="8">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="W21" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X21" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1600</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>20000</v>
       </c>
       <c r="Y21" s="3">
         <v>0.5</v>
       </c>
       <c r="Z21" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>345</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>172.5</v>
       </c>
       <c r="AA21" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>6900</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>86250</v>
       </c>
       <c r="AB21" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>1500</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>28350</v>
       </c>
       <c r="AC21" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>3820</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>48710</v>
       </c>
     </row>
     <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -3229,7 +3270,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O22" s="1" t="s">
@@ -3239,62 +3280,62 @@
         <v>35</v>
       </c>
       <c r="Q22" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R22" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S22" s="6">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="T22" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>37500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>20000</v>
       </c>
       <c r="U22" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>600</v>
       </c>
       <c r="V22" s="8">
         <v>5</v>
       </c>
       <c r="W22" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>40</v>
       </c>
       <c r="X22" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>20000</v>
       </c>
       <c r="Y22" s="3">
         <v>0.5</v>
       </c>
       <c r="Z22" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>172.5</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>120</v>
       </c>
       <c r="AA22" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>86250</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>60000</v>
       </c>
       <c r="AB22" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>28350</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>19400</v>
       </c>
       <c r="AC22" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>48710</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>39960</v>
       </c>
     </row>
     <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F23" s="3">
         <v>0</v>
@@ -3321,113 +3362,158 @@
         <v>0</v>
       </c>
       <c r="N23" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>158</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="1">
+        <v>200</v>
+      </c>
+      <c r="R23" s="1">
         <v>20</v>
       </c>
-      <c r="R23" s="1">
+      <c r="S23" s="6">
         <v>100</v>
       </c>
-      <c r="S23" s="6">
-        <v>200</v>
-      </c>
       <c r="T23" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>20000</v>
       </c>
       <c r="U23" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>4000</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
       </c>
       <c r="V23" s="8">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="W23" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>160</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X23" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3200</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>16000</v>
       </c>
       <c r="Y23" s="3">
         <v>0.5</v>
       </c>
       <c r="Z23" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>540</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>270</v>
       </c>
       <c r="AA23" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>10800</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>54000</v>
       </c>
       <c r="AB23" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-400</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>17200</v>
       </c>
       <c r="AC23" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>6640</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>33920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N24" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T24" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <v>182</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>200</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5</v>
+      </c>
+      <c r="S24" s="6">
+        <v>200</v>
+      </c>
+      <c r="T24" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>40000</v>
       </c>
       <c r="U24" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
-      </c>
-      <c r="W24" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
-      </c>
-      <c r="X24" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>200</v>
+      </c>
+      <c r="V24" s="8">
+        <v>10</v>
+      </c>
+      <c r="W24" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
+      </c>
+      <c r="X24" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>16000</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="Z24" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>420</v>
+      </c>
+      <c r="AA24" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>84000</v>
+      </c>
+      <c r="AB24" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>27800</v>
       </c>
       <c r="AC24" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>43920</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F25" s="3">
         <v>0</v>
@@ -3454,548 +3540,380 @@
         <v>0</v>
       </c>
       <c r="N25" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>0</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>35</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q25" s="1">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="R25" s="1">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S25" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="T25" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>20000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>22500</v>
       </c>
       <c r="U25" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>600</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V25" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W25" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>32</v>
       </c>
       <c r="X25" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>20000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>16000</v>
       </c>
       <c r="Y25" s="3">
         <v>0.5</v>
       </c>
       <c r="Z25" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>120</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>115.5</v>
       </c>
       <c r="AA25" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>60000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>57750</v>
       </c>
       <c r="AB25" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>19400</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>18850</v>
       </c>
       <c r="AC25" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>39960</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>35218</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="N26" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="1">
         <v>200</v>
       </c>
       <c r="R26" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S26" s="6">
         <v>100</v>
       </c>
       <c r="T26" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>20000</v>
       </c>
       <c r="U26" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V26" s="8">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="W26" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>32</v>
       </c>
       <c r="X26" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>16000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>6400</v>
       </c>
       <c r="Y26" s="3">
         <v>0.5</v>
       </c>
       <c r="Z26" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>198</v>
       </c>
       <c r="AA26" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>54000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>39600</v>
       </c>
       <c r="AB26" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>17200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>12800</v>
       </c>
       <c r="AC26" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>33920</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>19568</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="N27" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q27" s="1">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R27" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="S27" s="6">
-        <v>200</v>
-      </c>
-      <c r="T27" s="7">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>40000</v>
+        <v>300</v>
+      </c>
+      <c r="T27" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>30000</v>
       </c>
       <c r="U27" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>200</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
       </c>
       <c r="V27" s="8">
-        <v>10</v>
-      </c>
-      <c r="W27" s="7">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
-      </c>
-      <c r="X27" s="7">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>20</v>
+      </c>
+      <c r="W27" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>160</v>
+      </c>
+      <c r="X27" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>16000</v>
       </c>
       <c r="Y27" s="3">
         <v>0.5</v>
       </c>
-      <c r="Z27" s="7">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>420</v>
-      </c>
-      <c r="AA27" s="7">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>84000</v>
-      </c>
-      <c r="AB27" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>27800</v>
+      <c r="Z27" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>690</v>
+      </c>
+      <c r="AA27" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>69000</v>
+      </c>
+      <c r="AB27" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>22200</v>
       </c>
       <c r="AC27" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>43920</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>38840</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0</v>
-      </c>
-      <c r="H28" s="3">
-        <v>0</v>
-      </c>
-      <c r="I28" s="3">
-        <v>0</v>
-      </c>
-      <c r="J28" s="3">
-        <v>0</v>
-      </c>
-      <c r="K28" s="3">
-        <v>0</v>
-      </c>
-      <c r="L28" s="3">
-        <v>0</v>
-      </c>
-      <c r="M28" s="3">
-        <v>0</v>
-      </c>
-      <c r="N28" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>86</v>
+      </c>
+      <c r="N28" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q28" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R28" s="1">
         <v>10</v>
       </c>
       <c r="S28" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="T28" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>30000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>10000</v>
       </c>
       <c r="U28" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>400</v>
       </c>
       <c r="V28" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="W28" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>32</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X28" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>16000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="Y28" s="3">
         <v>0.5</v>
       </c>
       <c r="Z28" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>138</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>270</v>
       </c>
       <c r="AA28" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>69000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>27000</v>
       </c>
       <c r="AB28" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>22600</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>8600</v>
       </c>
       <c r="AC28" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>38968</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="N29" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P29" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q29" s="1">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="R29" s="1">
+        <v>30</v>
+      </c>
+      <c r="S29" s="6">
         <v>10</v>
       </c>
-      <c r="S29" s="6">
-        <v>45</v>
-      </c>
       <c r="T29" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>22500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1000</v>
       </c>
       <c r="U29" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V29" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W29" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>32</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>8</v>
       </c>
       <c r="X29" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>16000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
       </c>
       <c r="Y29" s="3">
         <v>0.5</v>
       </c>
       <c r="Z29" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>115.5</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>27</v>
       </c>
       <c r="AA29" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>57750</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2700</v>
       </c>
       <c r="AB29" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>18850</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-300</v>
       </c>
       <c r="AC29" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>35218</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>1692</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0</v>
-      </c>
-      <c r="G30" s="3">
-        <v>0</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0</v>
-      </c>
-      <c r="K30" s="3">
-        <v>0</v>
-      </c>
-      <c r="L30" s="3">
-        <v>0</v>
-      </c>
-      <c r="M30" s="3">
-        <v>0</v>
-      </c>
-      <c r="N30" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="N30" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="1">
+        <v>100</v>
+      </c>
+      <c r="R30" s="1">
+        <v>30</v>
+      </c>
+      <c r="S30" s="6">
         <v>10</v>
       </c>
-      <c r="R30" s="1">
-        <v>10</v>
-      </c>
-      <c r="S30" s="6">
-        <v>50</v>
-      </c>
       <c r="T30" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1000</v>
       </c>
       <c r="U30" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V30" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W30" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>24</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>8</v>
       </c>
       <c r="X30" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>240</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
       </c>
       <c r="Y30" s="3">
         <v>0.5</v>
       </c>
       <c r="Z30" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>111</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>27</v>
       </c>
       <c r="AA30" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1110</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2700</v>
       </c>
       <c r="AB30" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-30</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-300</v>
       </c>
       <c r="AC30" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>586</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>1692</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3">
-        <v>0</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="N31" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>16</v>
@@ -4004,87 +3922,60 @@
         <v>158</v>
       </c>
       <c r="Q31" s="1">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="R31" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S31" s="6">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="T31" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1000</v>
       </c>
       <c r="U31" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>200</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V31" s="8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W31" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>8</v>
       </c>
       <c r="X31" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>800</v>
       </c>
       <c r="Y31" s="3">
         <v>0.5</v>
       </c>
       <c r="Z31" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>172.5</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>27</v>
       </c>
       <c r="AA31" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3450</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2700</v>
       </c>
       <c r="AB31" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>950</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-300</v>
       </c>
       <c r="AC31" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1910</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>1692</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="N32" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>16</v>
@@ -4093,176 +3984,122 @@
         <v>158</v>
       </c>
       <c r="Q32" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R32" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S32" s="6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T32" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="U32" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>200</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V32" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W32" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>16</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>24</v>
       </c>
       <c r="X32" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2400</v>
       </c>
       <c r="Y32" s="3">
         <v>0.5</v>
       </c>
       <c r="Z32" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>99</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>96</v>
       </c>
       <c r="AA32" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4950</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>9600</v>
       </c>
       <c r="AB32" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>1450</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>2000</v>
       </c>
       <c r="AC32" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>2434</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>5576</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>95</v>
+      </c>
+      <c r="N33" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q33" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R33" s="1">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="S33" s="6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="T33" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>10000</v>
       </c>
       <c r="U33" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>200</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V33" s="8">
         <v>2</v>
       </c>
       <c r="W33" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>16</v>
       </c>
       <c r="X33" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1600</v>
       </c>
       <c r="Y33" s="3">
         <v>0.5</v>
       </c>
       <c r="Z33" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>99</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>174</v>
       </c>
       <c r="AA33" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4950</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>17400</v>
       </c>
       <c r="AB33" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>1450</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>4600</v>
       </c>
       <c r="AC33" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>2434</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>7384</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
-        <v>0</v>
-      </c>
-      <c r="H34" s="3">
-        <v>0</v>
-      </c>
-      <c r="I34" s="3">
-        <v>0</v>
-      </c>
-      <c r="J34" s="3">
-        <v>0</v>
-      </c>
-      <c r="K34" s="3">
-        <v>0</v>
-      </c>
-      <c r="L34" s="3">
-        <v>0</v>
-      </c>
-      <c r="M34" s="3">
-        <v>0</v>
-      </c>
-      <c r="N34" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>96</v>
+      </c>
+      <c r="N34" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>16</v>
@@ -4271,329 +4108,407 @@
         <v>158</v>
       </c>
       <c r="Q34" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="R34" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S34" s="6">
         <v>50</v>
       </c>
       <c r="T34" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2500</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>5000</v>
       </c>
       <c r="U34" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>200</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V34" s="8">
         <v>2</v>
       </c>
       <c r="W34" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>16</v>
       </c>
       <c r="X34" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1600</v>
       </c>
       <c r="Y34" s="3">
         <v>0.5</v>
       </c>
       <c r="Z34" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
         <v>99</v>
       </c>
       <c r="AA34" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4950</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>9900</v>
       </c>
       <c r="AB34" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>1450</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>2900</v>
       </c>
       <c r="AC34" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>4884</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>113</v>
+      </c>
+      <c r="N35" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q35" s="1">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="R35" s="1">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="S35" s="6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="T35" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>100000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="U35" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
       </c>
       <c r="V35" s="8">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="W35" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>64</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>24</v>
       </c>
       <c r="X35" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>64000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2400</v>
       </c>
       <c r="Y35" s="3">
         <v>0.5</v>
       </c>
       <c r="Z35" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>246</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>96</v>
       </c>
       <c r="AA35" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>246000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>9600</v>
       </c>
       <c r="AB35" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>81200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>2800</v>
       </c>
       <c r="AC35" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>145936</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>5576</v>
       </c>
     </row>
     <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
-        <v>0</v>
-      </c>
-      <c r="H36" s="3">
-        <v>0</v>
-      </c>
-      <c r="I36" s="3">
-        <v>0</v>
-      </c>
-      <c r="J36" s="3">
-        <v>0</v>
-      </c>
-      <c r="K36" s="3">
-        <v>0</v>
-      </c>
-      <c r="L36" s="3">
-        <v>0</v>
-      </c>
-      <c r="M36" s="3">
-        <v>0</v>
-      </c>
-      <c r="N36" s="4">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>0</v>
+        <v>137</v>
+      </c>
+      <c r="N36" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>16</v>
+        <v>159</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q36" s="1">
         <v>100</v>
       </c>
       <c r="R36" s="1">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="S36" s="6">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="T36" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>25000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>10000</v>
       </c>
       <c r="U36" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>6000</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
       </c>
       <c r="V36" s="8">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="W36" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>160</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>32</v>
       </c>
       <c r="X36" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>16000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3200</v>
       </c>
       <c r="Y36" s="3">
         <v>0.5</v>
       </c>
       <c r="Z36" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>615</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>198</v>
       </c>
       <c r="AA36" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>61500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>19800</v>
       </c>
       <c r="AB36" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>14500</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>5400</v>
       </c>
       <c r="AC36" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>36340</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>9768</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="N37" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>18</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>50</v>
+      </c>
+      <c r="R37" s="1">
+        <v>30</v>
+      </c>
+      <c r="S37" s="6">
+        <v>150</v>
       </c>
       <c r="T37" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>7500</v>
       </c>
       <c r="U37" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
+      </c>
+      <c r="V37" s="8">
+        <v>20</v>
       </c>
       <c r="W37" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>160</v>
       </c>
       <c r="X37" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z37" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>465</v>
       </c>
       <c r="AA37" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>23250</v>
       </c>
       <c r="AB37" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>6550</v>
       </c>
       <c r="AC37" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>15590</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>50</v>
+      </c>
+      <c r="R38" s="1">
+        <v>20</v>
+      </c>
+      <c r="S38" s="6">
+        <v>90</v>
+      </c>
+      <c r="T38" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>9000</v>
+      </c>
+      <c r="U38" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
+      </c>
+      <c r="V38" s="8">
+        <v>10</v>
+      </c>
+      <c r="W38" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>80</v>
       </c>
-      <c r="N38" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T38" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
-      </c>
-      <c r="W38" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
-      </c>
       <c r="X38" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z38" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>255</v>
       </c>
       <c r="AA38" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>25500</v>
       </c>
       <c r="AB38" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>7700</v>
       </c>
       <c r="AC38" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>16420</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="N39" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>59</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="Q39" s="1">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="R39" s="1">
         <v>20</v>
@@ -4602,174 +4517,348 @@
         <v>100</v>
       </c>
       <c r="T39" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>50000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>10000</v>
       </c>
       <c r="U39" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>800</v>
       </c>
       <c r="V39" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W39" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>64</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X39" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>32000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="Y39" s="3">
         <v>0.5</v>
       </c>
       <c r="Z39" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>246</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>270</v>
       </c>
       <c r="AA39" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>123000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>27000</v>
       </c>
       <c r="AB39" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>40200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>8200</v>
       </c>
       <c r="AC39" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>72936</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>16920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="N40" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>60</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="3">
+        <v>0</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>50</v>
+      </c>
+      <c r="R40" s="1">
+        <v>20</v>
+      </c>
+      <c r="S40" s="6">
+        <v>60</v>
       </c>
       <c r="T40" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>6000</v>
       </c>
       <c r="U40" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
+      </c>
+      <c r="V40" s="8">
+        <v>5</v>
       </c>
       <c r="W40" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X40" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z40" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>150</v>
       </c>
       <c r="AA40" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>15000</v>
       </c>
       <c r="AB40" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>4200</v>
       </c>
       <c r="AC40" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>8960</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="N41" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>74</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>50</v>
+      </c>
+      <c r="R41" s="1">
+        <v>5</v>
+      </c>
+      <c r="S41" s="6">
+        <v>50</v>
       </c>
       <c r="T41" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2500</v>
       </c>
       <c r="U41" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>200</v>
+      </c>
+      <c r="V41" s="8">
+        <v>2</v>
       </c>
       <c r="W41" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
       </c>
       <c r="X41" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z41" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>99</v>
       </c>
       <c r="AA41" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4950</v>
       </c>
       <c r="AB41" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>1450</v>
       </c>
       <c r="AC41" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>2434</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N42" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>75</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>50</v>
+      </c>
+      <c r="R42" s="1">
+        <v>5</v>
+      </c>
+      <c r="S42" s="6">
+        <v>50</v>
       </c>
       <c r="T42" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2500</v>
       </c>
       <c r="U42" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>200</v>
+      </c>
+      <c r="V42" s="8">
+        <v>2</v>
       </c>
       <c r="W42" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
       </c>
       <c r="X42" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z42" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>99</v>
       </c>
       <c r="AA42" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4950</v>
       </c>
       <c r="AB42" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>1450</v>
       </c>
       <c r="AC42" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>2434</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="N43" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>76</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>16</v>
@@ -4778,121 +4867,148 @@
         <v>158</v>
       </c>
       <c r="Q43" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R43" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="S43" s="6">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="T43" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>30000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2500</v>
       </c>
       <c r="U43" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>200</v>
+      </c>
+      <c r="V43" s="8">
+        <v>2</v>
+      </c>
+      <c r="W43" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>16</v>
+      </c>
+      <c r="X43" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>800</v>
-      </c>
-      <c r="V43" s="8">
-        <v>20</v>
-      </c>
-      <c r="W43" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>160</v>
-      </c>
-      <c r="X43" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>16000</v>
       </c>
       <c r="Y43" s="3">
         <v>0.5</v>
       </c>
       <c r="Z43" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>690</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>99</v>
       </c>
       <c r="AA43" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>69000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4950</v>
       </c>
       <c r="AB43" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>22200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>1450</v>
       </c>
       <c r="AC43" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>38840</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>2434</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="N44" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P44" s="1" t="s">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="Q44" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R44" s="1">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="S44" s="6">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="T44" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>10000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>25000</v>
       </c>
       <c r="U44" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>6000</v>
       </c>
       <c r="V44" s="8">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="W44" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>160</v>
       </c>
       <c r="X44" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>16000</v>
       </c>
       <c r="Y44" s="3">
         <v>0.5</v>
       </c>
       <c r="Z44" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>615</v>
       </c>
       <c r="AA44" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>27000</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>61500</v>
       </c>
       <c r="AB44" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>8600</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>14500</v>
       </c>
       <c r="AC44" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>16920</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>36340</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N45" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="1" t="s">
@@ -4902,618 +5018,596 @@
         <v>158</v>
       </c>
       <c r="Q45" s="1">
+        <v>50</v>
+      </c>
+      <c r="R45" s="1">
         <v>30</v>
       </c>
-      <c r="R45" s="1">
+      <c r="S45" s="6">
         <v>10</v>
       </c>
-      <c r="S45" s="6">
-        <v>100</v>
-      </c>
       <c r="T45" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>500</v>
       </c>
       <c r="U45" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1200</v>
+      </c>
+      <c r="V45" s="8">
+        <v>1</v>
+      </c>
+      <c r="W45" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>8</v>
+      </c>
+      <c r="X45" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>400</v>
-      </c>
-      <c r="V45" s="8">
-        <v>10</v>
-      </c>
-      <c r="W45" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
-      </c>
-      <c r="X45" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2400</v>
       </c>
       <c r="Y45" s="3">
         <v>0.5</v>
       </c>
       <c r="Z45" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>27</v>
       </c>
       <c r="AA45" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8100</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1350</v>
       </c>
       <c r="AB45" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>2300</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-750</v>
       </c>
       <c r="AC45" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>5020</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>842</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="N46" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>16</v>
+        <v>184</v>
       </c>
       <c r="P46" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q46" s="1">
         <v>50</v>
       </c>
       <c r="R46" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S46" s="6">
+        <v>300</v>
+      </c>
+      <c r="T46" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>15000</v>
+      </c>
+      <c r="U46" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1600</v>
+      </c>
+      <c r="V46" s="8">
         <v>10</v>
       </c>
-      <c r="T46" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>500</v>
-      </c>
-      <c r="U46" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V46" s="8">
-        <v>1</v>
-      </c>
       <c r="W46" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>8</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X46" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>400</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="Y46" s="3">
         <v>0.5</v>
       </c>
       <c r="Z46" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>27</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>570</v>
       </c>
       <c r="AA46" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1350</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>28500</v>
       </c>
       <c r="AB46" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-750</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>7900</v>
       </c>
       <c r="AC46" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>842</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>13420</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="N47" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q47" s="1">
+        <v>50</v>
+      </c>
+      <c r="R47" s="1">
+        <v>40</v>
+      </c>
+      <c r="S47" s="6">
         <v>100</v>
       </c>
-      <c r="R47" s="1">
-        <v>30</v>
-      </c>
-      <c r="S47" s="6">
+      <c r="T47" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>5000</v>
+      </c>
+      <c r="U47" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>1600</v>
+      </c>
+      <c r="V47" s="8">
         <v>10</v>
       </c>
-      <c r="T47" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1000</v>
-      </c>
-      <c r="U47" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V47" s="8">
-        <v>1</v>
-      </c>
       <c r="W47" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>8</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X47" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="Y47" s="3">
         <v>0.5</v>
       </c>
       <c r="Z47" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>27</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>270</v>
       </c>
       <c r="AA47" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2700</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>13500</v>
       </c>
       <c r="AB47" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-300</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>2900</v>
       </c>
       <c r="AC47" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1692</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>8420</v>
       </c>
     </row>
     <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="N48" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q48" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="R48" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="S48" s="6">
+        <v>0</v>
+      </c>
+      <c r="T48" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>2000</v>
+      </c>
+      <c r="V48" s="8">
+        <v>0</v>
+      </c>
+      <c r="W48" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="6">
         <v>10</v>
       </c>
-      <c r="T48" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1000</v>
-      </c>
-      <c r="U48" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V48" s="8">
-        <v>1</v>
-      </c>
-      <c r="W48" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>8</v>
-      </c>
-      <c r="X48" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z48" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>27</v>
-      </c>
       <c r="AA48" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2700</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>500</v>
       </c>
       <c r="AB48" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-300</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-1500</v>
       </c>
       <c r="AC48" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="N49" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P49" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="Q49" s="1">
-        <v>100</v>
-      </c>
-      <c r="R49" s="1">
-        <v>30</v>
-      </c>
-      <c r="S49" s="6">
-        <v>10</v>
-      </c>
-      <c r="T49" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1000</v>
+        <v>50</v>
+      </c>
+      <c r="T49" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U49" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V49" s="8">
-        <v>1</v>
-      </c>
-      <c r="W49" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>8</v>
-      </c>
-      <c r="X49" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
-      </c>
-      <c r="Y49" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z49" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>27</v>
-      </c>
-      <c r="AA49" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2700</v>
-      </c>
-      <c r="AB49" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-300</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB49" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC49" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1692</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="N50" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="Q50" s="1">
+        <v>50</v>
+      </c>
+      <c r="T50" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB50" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N51" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>50</v>
+      </c>
+      <c r="T51" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB51" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N52" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O52" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="P50" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q50" s="1">
-        <v>10</v>
-      </c>
-      <c r="R50" s="1">
-        <v>100</v>
-      </c>
-      <c r="S50" s="6">
-        <v>150</v>
-      </c>
-      <c r="T50" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1500</v>
-      </c>
-      <c r="U50" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>4000</v>
-      </c>
-      <c r="V50" s="8">
-        <v>10</v>
-      </c>
-      <c r="W50" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
-      </c>
-      <c r="X50" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
-      </c>
-      <c r="Y50" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z50" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>345</v>
-      </c>
-      <c r="AA50" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3450</v>
-      </c>
-      <c r="AB50" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-2850</v>
-      </c>
-      <c r="AC50" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N51" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O51" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P51" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q51" s="1">
-        <v>100</v>
-      </c>
-      <c r="R51" s="1">
-        <v>30</v>
-      </c>
-      <c r="S51" s="6">
-        <v>40</v>
-      </c>
-      <c r="T51" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
-      </c>
-      <c r="U51" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V51" s="8">
-        <v>3</v>
-      </c>
-      <c r="W51" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>24</v>
-      </c>
-      <c r="X51" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2400</v>
-      </c>
-      <c r="Y51" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="Z51" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>96</v>
-      </c>
-      <c r="AA51" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>9600</v>
-      </c>
-      <c r="AB51" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>2000</v>
-      </c>
-      <c r="AC51" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>5576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="N52" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O52" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="P52" s="1" t="s">
         <v>158</v>
       </c>
       <c r="Q52" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="R52" s="1">
         <v>10</v>
       </c>
       <c r="S52" s="6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="T52" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1200</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3000</v>
       </c>
       <c r="U52" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>400</v>
       </c>
       <c r="V52" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W52" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>8</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X52" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>160</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2400</v>
       </c>
       <c r="Y52" s="3">
         <v>0.5</v>
       </c>
       <c r="Z52" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>102</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>270</v>
       </c>
       <c r="AA52" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2040</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8100</v>
       </c>
       <c r="AB52" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>280</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>2300</v>
       </c>
       <c r="AC52" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>832</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>5020</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="N53" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>184</v>
+        <v>16</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="Q53" s="1">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="R53" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S53" s="6">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="T53" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>10000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1650</v>
       </c>
       <c r="U53" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
+      </c>
+      <c r="V53" s="8">
+        <v>5</v>
+      </c>
+      <c r="W53" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
+      </c>
+      <c r="X53" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>1200</v>
-      </c>
-      <c r="V53" s="8">
-        <v>2</v>
-      </c>
-      <c r="W53" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>16</v>
-      </c>
-      <c r="X53" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1600</v>
       </c>
       <c r="Y53" s="3">
         <v>0.5</v>
       </c>
       <c r="Z53" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>174</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>142.5</v>
       </c>
       <c r="AA53" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>17400</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4275</v>
       </c>
       <c r="AB53" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>4600</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>625</v>
       </c>
       <c r="AC53" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>7384</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>2585</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="N54" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="P54" s="1" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="Q54" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="R54" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S54" s="6">
         <v>50</v>
       </c>
       <c r="T54" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>5000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1250</v>
       </c>
       <c r="U54" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
       </c>
       <c r="V54" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W54" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>16</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>32</v>
       </c>
       <c r="X54" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1600</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
       </c>
       <c r="Y54" s="3">
         <v>0.5</v>
       </c>
       <c r="Z54" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>99</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>123</v>
       </c>
       <c r="AA54" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>9900</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3075</v>
       </c>
       <c r="AB54" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>2900</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>225</v>
       </c>
       <c r="AC54" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>4884</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>1793</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="N55" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="G55" s="3">
+        <v>0</v>
+      </c>
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>3.7499999999999999E-2</v>
       </c>
       <c r="O55" s="1" t="s">
         <v>16</v>
@@ -5522,1053 +5616,1511 @@
         <v>158</v>
       </c>
       <c r="Q55" s="1">
+        <v>20</v>
+      </c>
+      <c r="R55" s="1">
         <v>200</v>
       </c>
-      <c r="R55" s="1">
-        <v>10</v>
-      </c>
       <c r="S55" s="6">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="T55" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>20000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>10000</v>
       </c>
       <c r="U55" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>8000</v>
       </c>
       <c r="V55" s="8">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="W55" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>32</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>160</v>
       </c>
       <c r="X55" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>6400</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3200</v>
       </c>
       <c r="Y55" s="3">
         <v>0.5</v>
       </c>
       <c r="Z55" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>198</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>990</v>
       </c>
       <c r="AA55" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>39600</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>19800</v>
       </c>
       <c r="AB55" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>12800</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-1400</v>
       </c>
       <c r="AC55" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>19568</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>9640</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="N56" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>14</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>0</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>20</v>
+      </c>
+      <c r="R56" s="1">
+        <v>20</v>
+      </c>
+      <c r="S56" s="6">
+        <v>400</v>
       </c>
       <c r="T56" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="U56" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
+      </c>
+      <c r="V56" s="8">
+        <v>10</v>
       </c>
       <c r="W56" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X56" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z56" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>720</v>
       </c>
       <c r="AA56" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>7200</v>
       </c>
       <c r="AB56" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>1600</v>
       </c>
       <c r="AC56" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>3120</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="N57" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>46</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.85</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>20</v>
+      </c>
+      <c r="R57" s="1">
+        <v>100</v>
+      </c>
+      <c r="S57" s="6">
+        <v>400</v>
       </c>
       <c r="T57" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>20000</v>
       </c>
       <c r="U57" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>4000</v>
+      </c>
+      <c r="V57" s="8">
+        <v>20</v>
       </c>
       <c r="W57" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>160</v>
       </c>
       <c r="X57" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z57" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>840</v>
       </c>
       <c r="AA57" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>42000</v>
       </c>
       <c r="AB57" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>10000</v>
       </c>
       <c r="AC57" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>21840</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="N58" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>65</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>20</v>
+      </c>
+      <c r="R58" s="1">
+        <v>20</v>
+      </c>
+      <c r="S58" s="6">
+        <v>150</v>
       </c>
       <c r="T58" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3000</v>
       </c>
       <c r="U58" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>800</v>
+      </c>
+      <c r="V58" s="8">
+        <v>10</v>
       </c>
       <c r="W58" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X58" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1600</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z58" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>345</v>
       </c>
       <c r="AA58" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>6900</v>
       </c>
       <c r="AB58" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>1500</v>
       </c>
       <c r="AC58" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>3820</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N59" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>67</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>20</v>
+      </c>
+      <c r="R59" s="1">
+        <v>100</v>
+      </c>
+      <c r="S59" s="6">
+        <v>200</v>
       </c>
       <c r="T59" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>4000</v>
       </c>
       <c r="U59" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>4000</v>
+      </c>
+      <c r="V59" s="8">
+        <v>20</v>
       </c>
       <c r="W59" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>160</v>
       </c>
       <c r="X59" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3200</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z59" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>540</v>
       </c>
       <c r="AA59" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>10800</v>
       </c>
       <c r="AB59" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-400</v>
       </c>
       <c r="AC59" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>6640</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="N60" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>73</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F60" s="3">
+        <v>0</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>20</v>
+      </c>
+      <c r="R60" s="1">
+        <v>5</v>
+      </c>
+      <c r="S60" s="6">
+        <v>75</v>
       </c>
       <c r="T60" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1500</v>
       </c>
       <c r="U60" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>200</v>
+      </c>
+      <c r="V60" s="8">
+        <v>5</v>
       </c>
       <c r="W60" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>40</v>
       </c>
       <c r="X60" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z60" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>172.5</v>
       </c>
       <c r="AA60" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3450</v>
       </c>
       <c r="AB60" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>950</v>
       </c>
       <c r="AC60" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>1910</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="N61" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="O61" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="P61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>20</v>
+      </c>
+      <c r="R61" s="1">
+        <v>10</v>
+      </c>
+      <c r="S61" s="6">
+        <v>60</v>
+      </c>
       <c r="T61" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1200</v>
       </c>
       <c r="U61" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
+      </c>
+      <c r="V61" s="8">
+        <v>1</v>
       </c>
       <c r="W61" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>8</v>
       </c>
       <c r="X61" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>160</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z61" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>102</v>
       </c>
       <c r="AA61" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>2040</v>
       </c>
       <c r="AB61" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>280</v>
       </c>
       <c r="AC61" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>832</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N62" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="O62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>20</v>
+      </c>
+      <c r="R62" s="1">
+        <v>150</v>
+      </c>
+      <c r="S62" s="6">
+        <v>400</v>
+      </c>
       <c r="T62" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>8000</v>
       </c>
       <c r="U62" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>6000</v>
+      </c>
+      <c r="V62" s="8">
+        <v>10</v>
       </c>
       <c r="W62" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X62" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1600</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z62" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>720</v>
       </c>
       <c r="AA62" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>14400</v>
       </c>
       <c r="AB62" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-1200</v>
       </c>
       <c r="AC62" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>6320</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="N63" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
-        <v>#DIV/0!</v>
+        <v>72</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="3">
+        <v>0</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="4">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>0</v>
+      </c>
+      <c r="O63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>10</v>
+      </c>
+      <c r="R63" s="1">
+        <v>10</v>
+      </c>
+      <c r="S63" s="6">
+        <v>50</v>
       </c>
       <c r="T63" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>500</v>
       </c>
       <c r="U63" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>400</v>
+      </c>
+      <c r="V63" s="8">
+        <v>3</v>
       </c>
       <c r="W63" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>24</v>
       </c>
       <c r="X63" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>240</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z63" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>111</v>
       </c>
       <c r="AA63" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1110</v>
       </c>
       <c r="AB63" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-30</v>
       </c>
       <c r="AC63" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>586</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="N64" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="O64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>10</v>
+      </c>
+      <c r="R64" s="1">
+        <v>100</v>
+      </c>
+      <c r="S64" s="6">
+        <v>150</v>
+      </c>
       <c r="T64" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>1500</v>
       </c>
       <c r="U64" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>4000</v>
+      </c>
+      <c r="V64" s="8">
+        <v>10</v>
       </c>
       <c r="W64" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>80</v>
       </c>
       <c r="X64" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>800</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0.5</v>
       </c>
       <c r="Z64" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>345</v>
       </c>
       <c r="AA64" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>3450</v>
       </c>
       <c r="AB64" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>-2850</v>
       </c>
       <c r="AC64" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>1870</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>107</v>
+        <v>68</v>
       </c>
       <c r="N65" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T65" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>0</v>
       </c>
       <c r="U65" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>0</v>
       </c>
       <c r="W65" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>0</v>
       </c>
       <c r="X65" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>0</v>
       </c>
       <c r="Z65" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
         <v>0</v>
       </c>
       <c r="AA65" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>0</v>
       </c>
       <c r="AB65" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
         <v>0</v>
       </c>
       <c r="AC65" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="N66" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O66" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="P66" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>50</v>
-      </c>
-      <c r="R66" s="1">
-        <v>40</v>
-      </c>
-      <c r="S66" s="6">
-        <v>300</v>
-      </c>
       <c r="T66" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>15000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U66" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1600</v>
-      </c>
-      <c r="V66" s="8">
-        <v>10</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W66" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X66" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z66" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>570</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA66" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>28500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB66" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>7900</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC66" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>13420</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="N67" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P67" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q67" s="1">
-        <v>50</v>
-      </c>
-      <c r="R67" s="1">
-        <v>40</v>
-      </c>
-      <c r="S67" s="6">
-        <v>100</v>
-      </c>
       <c r="T67" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>5000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U67" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1600</v>
-      </c>
-      <c r="V67" s="8">
-        <v>10</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W67" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X67" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
-      </c>
-      <c r="Y67" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z67" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>270</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA67" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>13500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB67" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>2900</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC67" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>8420</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="N68" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O68" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P68" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>25</v>
-      </c>
-      <c r="R68" s="1">
-        <v>20</v>
-      </c>
-      <c r="S68" s="6">
-        <v>50</v>
-      </c>
       <c r="T68" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1250</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U68" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
-      </c>
-      <c r="V68" s="8">
-        <v>4</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W68" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>32</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X68" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>800</v>
-      </c>
-      <c r="Y68" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z68" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>123</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA68" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3075</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB68" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>225</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC68" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>1793</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="N69" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O69" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>20</v>
-      </c>
-      <c r="R69" s="1">
-        <v>150</v>
-      </c>
-      <c r="S69" s="6">
-        <v>400</v>
-      </c>
       <c r="T69" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>8000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U69" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>6000</v>
-      </c>
-      <c r="V69" s="8">
-        <v>10</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W69" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>80</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X69" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1600</v>
-      </c>
-      <c r="Y69" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z69" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>720</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA69" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>14400</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB69" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-1200</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC69" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>6320</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="N70" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O70" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P70" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>300</v>
-      </c>
-      <c r="R70" s="1">
-        <v>40</v>
-      </c>
-      <c r="S70" s="6">
-        <v>50</v>
-      </c>
       <c r="T70" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>15000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U70" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1600</v>
-      </c>
-      <c r="V70" s="8">
-        <v>3</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W70" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>24</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X70" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>7200</v>
-      </c>
-      <c r="Y70" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z70" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>111</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA70" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>33300</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB70" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>9500</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC70" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>18276</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="N71" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O71" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q71" s="1">
-        <v>100</v>
-      </c>
-      <c r="R71" s="1">
-        <v>10</v>
-      </c>
-      <c r="S71" s="6">
-        <v>40</v>
-      </c>
       <c r="T71" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U71" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>400</v>
-      </c>
-      <c r="V71" s="8">
-        <v>3</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W71" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>24</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X71" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>2400</v>
-      </c>
-      <c r="Y71" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z71" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>96</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA71" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>9600</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB71" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>2800</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC71" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>5576</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="N72" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O72" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>30</v>
-      </c>
-      <c r="R72" s="1">
-        <v>20</v>
-      </c>
-      <c r="S72" s="6">
-        <v>55</v>
-      </c>
       <c r="T72" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1650</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U72" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>800</v>
-      </c>
-      <c r="V72" s="8">
-        <v>5</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W72" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>40</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X72" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>1200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z72" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>142.5</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA72" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>4275</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB72" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>625</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC72" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>2585</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>135</v>
+        <v>100</v>
       </c>
       <c r="N73" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O73" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P73" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q73" s="1">
-        <v>50</v>
-      </c>
-      <c r="R73" s="1">
-        <v>50</v>
-      </c>
-      <c r="S73" s="6">
-        <v>0</v>
-      </c>
       <c r="T73" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>0</v>
       </c>
       <c r="U73" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>2000</v>
-      </c>
-      <c r="V73" s="8">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
         <v>0</v>
       </c>
       <c r="W73" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
         <v>0</v>
       </c>
       <c r="X73" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>0</v>
       </c>
       <c r="Z73" s="6">
-        <v>10</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA73" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>500</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB73" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>-1500</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC73" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>500</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>137</v>
+        <v>101</v>
       </c>
       <c r="N74" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="P74" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q74" s="1">
-        <v>100</v>
-      </c>
-      <c r="R74" s="1">
-        <v>30</v>
-      </c>
-      <c r="S74" s="6">
-        <v>100</v>
-      </c>
       <c r="T74" s="6">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>10000</v>
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="U74" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>1200</v>
-      </c>
-      <c r="V74" s="8">
-        <v>4</v>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
       </c>
       <c r="W74" s="6">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>32</v>
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
       </c>
       <c r="X74" s="6">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>3200</v>
-      </c>
-      <c r="Y74" s="3">
-        <v>0.5</v>
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="Z74" s="6">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>198</v>
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
       </c>
       <c r="AA74" s="6">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>19800</v>
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
       </c>
       <c r="AB74" s="6">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
-        <v>5400</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
       </c>
       <c r="AC74" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>9768</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="N75" s="4" t="e">
-        <f>SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T75" s="7">
-        <f>Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+      <c r="T75" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
         <v>0</v>
       </c>
       <c r="U75" s="6">
-        <f>(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
-        <v>0</v>
-      </c>
-      <c r="W75" s="7">
-        <f>Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
-        <v>0</v>
-      </c>
-      <c r="X75" s="7">
-        <f>Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
-      </c>
-      <c r="Z75" s="7">
-        <f>(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
-        <v>0</v>
-      </c>
-      <c r="AA75" s="7">
-        <f>Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
-        <v>0</v>
-      </c>
-      <c r="AB75" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W75" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X75" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z75" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA75" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB75" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
         <v>0</v>
       </c>
       <c r="AC75" s="7">
-        <f>Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
-        <v>0</v>
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="N76" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T76" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U76" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W76" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X76" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z76" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA76" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB76" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC76" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N77" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T77" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U77" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W77" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X77" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z77" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA77" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB77" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC77" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="N78" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T78" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U78" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W78" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X78" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z78" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA78" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB78" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC78" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="N79" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T79" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U79" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W79" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X79" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z79" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA79" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB79" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC79" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N80" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T80" s="6">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U80" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W80" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X80" s="6">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z80" s="6">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA80" s="6">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB80" s="6">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC80" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="16"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="16"/>
+      <c r="Q81" s="1">
+        <f>SUBTOTAL(109,Table1[Annual Prediction])</f>
+        <v>20585</v>
+      </c>
+      <c r="R81" s="1">
+        <f>SUBTOTAL(109,Table1[Development Time])</f>
+        <v>1820</v>
+      </c>
+      <c r="S81" s="17">
+        <f>SUBTOTAL(109,Table1[Per Part Cost])</f>
+        <v>6045</v>
+      </c>
+      <c r="T81" s="19">
+        <f>SUBTOTAL(109,Table1[Annual Cost])</f>
+        <v>926600</v>
+      </c>
+      <c r="U81" s="17">
+        <f>SUBTOTAL(109,Table1[Development Cost])</f>
+        <v>72800</v>
+      </c>
+      <c r="V81" s="18">
+        <f>SUBTOTAL(109,Table1[Assembly Time])</f>
+        <v>371</v>
+      </c>
+      <c r="W81" s="19">
+        <f>SUBTOTAL(109,Table1[Assembly Cost])</f>
+        <v>2968</v>
+      </c>
+      <c r="X81" s="19">
+        <f>SUBTOTAL(109,Table1[Annual Assembly Cost])</f>
+        <v>610800</v>
+      </c>
+      <c r="Y81" s="16"/>
+      <c r="Z81" s="17">
+        <f>SUBTOTAL(109,Table1[Sell Price])</f>
+        <v>13540.68</v>
+      </c>
+      <c r="AA81" s="17">
+        <f>SUBTOTAL(109,Table1[Annual Income])</f>
+        <v>2418400</v>
+      </c>
+      <c r="AB81" s="17">
+        <f>SUBTOTAL(109,Table1[Year 1 Revenue])</f>
+        <v>808200</v>
+      </c>
+      <c r="AC81" s="17">
+        <f>SUBTOTAL(109,Table1[Year 2 Revenue])</f>
+        <v>1488832</v>
       </c>
     </row>
   </sheetData>

--- a/Projects 2-5-2014.xlsx
+++ b/Projects 2-5-2014.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="197">
   <si>
     <t>Project Name</t>
   </si>
@@ -606,6 +606,15 @@
   </si>
   <si>
     <t>Dog Vacationer</t>
+  </si>
+  <si>
+    <t>Light up disc golf disc</t>
+  </si>
+  <si>
+    <t>Disc golf bags</t>
+  </si>
+  <si>
+    <t>Golf Ball Locator</t>
   </si>
 </sst>
 </file>
@@ -1118,8 +1127,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:AC81" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
-  <autoFilter ref="A3:AC80"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:AC85" totalsRowCount="1" headerRowDxfId="59" dataDxfId="58">
+  <autoFilter ref="A3:AC84"/>
   <sortState ref="A4:AC80">
     <sortCondition descending="1" ref="Q3:Q80"/>
   </sortState>
@@ -1463,11 +1472,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF81"/>
+  <dimension ref="A1:AF85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2363,7 +2372,7 @@
         <v>38968</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -2425,7 +2434,7 @@
         <v>72936</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2772,7 +2781,7 @@
         <v>18276</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
@@ -2867,7 +2876,7 @@
         <v>15960</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>18234</v>
       </c>
     </row>
-    <row r="19" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -3054,7 +3063,7 @@
         <v>49960</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>190</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>30734</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>66</v>
       </c>
@@ -3235,7 +3244,7 @@
         <v>48710</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>69</v>
       </c>
@@ -3327,7 +3336,7 @@
         <v>39960</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>181</v>
       </c>
@@ -3419,7 +3428,7 @@
         <v>33920</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>182</v>
       </c>
@@ -3845,7 +3854,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>90</v>
       </c>
@@ -3969,7 +3978,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -4217,7 +4226,7 @@
         <v>5576</v>
       </c>
     </row>
-    <row r="36" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>137</v>
       </c>
@@ -4279,7 +4288,7 @@
         <v>9768</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -4555,7 +4564,7 @@
         <v>16920</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -4914,7 +4923,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>78</v>
       </c>
@@ -5189,7 +5198,7 @@
         <v>8420</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>135</v>
       </c>
@@ -5247,7 +5256,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>186</v>
       </c>
@@ -5379,7 +5388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:29" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -5663,7 +5672,7 @@
         <v>9640</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>14</v>
       </c>
@@ -5758,7 +5767,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:29" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>46</v>
       </c>
@@ -5856,7 +5865,7 @@
         <v>21840</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>65</v>
       </c>
@@ -5948,7 +5957,7 @@
         <v>3820</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>67</v>
       </c>
@@ -7062,63 +7071,224 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="N81" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T81" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U81" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W81" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X81" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z81" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA81" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB81" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC81" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N82" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T82" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U82" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W82" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X82" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z82" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA82" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB82" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC82" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="N83" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T83" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U83" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W83" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X83" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z83" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA83" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB83" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC83" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="N84" s="4" t="e">
+        <f ca="1">SUM(Table1[[#This Row],[Concept]:[Production ready]])/COUNT(Table1[[#This Row],[Concept]:[Production ready]])</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T84" s="7">
+        <f ca="1">Table1[[#This Row],[Per Part Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="U84" s="6">
+        <f ca="1">(Table1[[#This Row],[Development Time]]*$AE$3)*$AE$4</f>
+        <v>0</v>
+      </c>
+      <c r="W84" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Time]]*$AE$3*$AE$5</f>
+        <v>0</v>
+      </c>
+      <c r="X84" s="7">
+        <f ca="1">Table1[[#This Row],[Assembly Cost]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="Z84" s="7">
+        <f ca="1">(Table1[[#This Row],[Per Part Cost]]+Table1[[#This Row],[Assembly Cost]])*(1+Table1[[#This Row],[Revenue markup]])</f>
+        <v>0</v>
+      </c>
+      <c r="AA84" s="7">
+        <f ca="1">Table1[[#This Row],[Sell Price]]*Table1[[#This Row],[Annual Prediction]]</f>
+        <v>0</v>
+      </c>
+      <c r="AB84" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Development Cost]]+Table1[[#This Row],[Annual Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+      <c r="AC84" s="7">
+        <f ca="1">Table1[[#This Row],[Annual Income]]-(Table1[[#This Row],[Annual Cost]]+Table1[[#This Row],[Assembly Cost]])</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="Q81" s="1">
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="Q85" s="1">
         <f>SUBTOTAL(109,Table1[Annual Prediction])</f>
         <v>20585</v>
       </c>
-      <c r="R81" s="1">
+      <c r="R85" s="1">
         <f>SUBTOTAL(109,Table1[Development Time])</f>
         <v>1820</v>
       </c>
-      <c r="S81" s="17">
+      <c r="S85" s="17">
         <f>SUBTOTAL(109,Table1[Per Part Cost])</f>
         <v>6045</v>
       </c>
-      <c r="T81" s="19">
+      <c r="T85" s="19">
         <f>SUBTOTAL(109,Table1[Annual Cost])</f>
         <v>926600</v>
       </c>
-      <c r="U81" s="17">
+      <c r="U85" s="17">
         <f>SUBTOTAL(109,Table1[Development Cost])</f>
         <v>72800</v>
       </c>
-      <c r="V81" s="18">
+      <c r="V85" s="18">
         <f>SUBTOTAL(109,Table1[Assembly Time])</f>
         <v>371</v>
       </c>
-      <c r="W81" s="19">
+      <c r="W85" s="19">
         <f>SUBTOTAL(109,Table1[Assembly Cost])</f>
         <v>2968</v>
       </c>
-      <c r="X81" s="19">
+      <c r="X85" s="19">
         <f>SUBTOTAL(109,Table1[Annual Assembly Cost])</f>
         <v>610800</v>
       </c>
-      <c r="Y81" s="16"/>
-      <c r="Z81" s="17">
+      <c r="Y85" s="16"/>
+      <c r="Z85" s="17">
         <f>SUBTOTAL(109,Table1[Sell Price])</f>
         <v>13540.68</v>
       </c>
-      <c r="AA81" s="17">
+      <c r="AA85" s="17">
         <f>SUBTOTAL(109,Table1[Annual Income])</f>
         <v>2418400</v>
       </c>
-      <c r="AB81" s="17">
+      <c r="AB85" s="17">
         <f>SUBTOTAL(109,Table1[Year 1 Revenue])</f>
         <v>808200</v>
       </c>
-      <c r="AC81" s="17">
+      <c r="AC85" s="17">
         <f>SUBTOTAL(109,Table1[Year 2 Revenue])</f>
         <v>1488832</v>
       </c>
